--- a/doc/项目计划.xlsx
+++ b/doc/项目计划.xlsx
@@ -88,6 +88,9 @@
     <t>查询用户</t>
   </si>
   <si>
+    <t>钟浩</t>
+  </si>
+  <si>
     <t>苏上</t>
   </si>
   <si>
@@ -97,67 +100,64 @@
     <t>删除用户</t>
   </si>
   <si>
+    <t>首页展示用户标签</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>数据展示</t>
+  </si>
+  <si>
+    <t>管理公司</t>
+  </si>
+  <si>
+    <t>展示地区行情</t>
+  </si>
+  <si>
+    <t>文件下载</t>
+  </si>
+  <si>
+    <t>展示公司列表</t>
+  </si>
+  <si>
+    <t>登录注册</t>
+  </si>
+  <si>
+    <t>条件搜索公司</t>
+  </si>
+  <si>
+    <t>删除公司</t>
+  </si>
+  <si>
+    <t>修改公司</t>
+  </si>
+  <si>
+    <t>添加公司(单条)</t>
+  </si>
+  <si>
+    <t>查询公司详情</t>
+  </si>
+  <si>
+    <t>数据处理</t>
+  </si>
+  <si>
+    <t>上传表格</t>
+  </si>
+  <si>
+    <t>下载表格模板</t>
+  </si>
+  <si>
+    <t>索引添加</t>
+  </si>
+  <si>
+    <t>索引修改</t>
+  </si>
+  <si>
+    <t>索引删除</t>
+  </si>
+  <si>
     <t>苏上,林柯</t>
-  </si>
-  <si>
-    <t>首页展示用户能力图</t>
-  </si>
-  <si>
-    <t>钟浩</t>
-  </si>
-  <si>
-    <t>数据展示</t>
-  </si>
-  <si>
-    <t>管理公司</t>
-  </si>
-  <si>
-    <t>展示地区行情</t>
-  </si>
-  <si>
-    <t>文件上传</t>
-  </si>
-  <si>
-    <t>展示公司列表</t>
-  </si>
-  <si>
-    <t>文件下载</t>
-  </si>
-  <si>
-    <t>条件搜索公司</t>
-  </si>
-  <si>
-    <t>登录注册</t>
-  </si>
-  <si>
-    <t>删除公司</t>
-  </si>
-  <si>
-    <t>修改公司</t>
-  </si>
-  <si>
-    <t>添加公司(单条)</t>
-  </si>
-  <si>
-    <t>查询公司详情</t>
-  </si>
-  <si>
-    <t>数据处理</t>
-  </si>
-  <si>
-    <t>上传表格</t>
-  </si>
-  <si>
-    <t>下载表格模板</t>
-  </si>
-  <si>
-    <t>索引添加</t>
-  </si>
-  <si>
-    <t>索引修改</t>
-  </si>
-  <si>
-    <t>索引删除</t>
   </si>
   <si>
     <t>索引查询</t>
@@ -174,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -213,7 +213,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,8 +264,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,9 +281,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +311,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -272,89 +349,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,6 +365,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,13 +473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,73 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,86 +549,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -575,6 +575,73 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -589,17 +656,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,8 +682,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -645,32 +708,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -679,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,137 +728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,19 +880,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,7 +1241,7 @@
     <col min="11" max="11" width="17.4916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:11">
+    <row r="1" ht="48" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,14 +1252,15 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="10">
         <v>43184</v>
       </c>
-    </row>
-    <row r="2" ht="17" customHeight="1" spans="1:11">
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:12">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -1225,14 +1275,17 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="17" customHeight="1" spans="1:11">
+      <c r="L2" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1245,20 +1298,21 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6">
         <v>0.5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:11">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6">
@@ -1267,20 +1321,23 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6">
         <v>0.5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="17" customHeight="1" spans="1:11">
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -1291,20 +1348,23 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>2</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="17" customHeight="1" spans="1:11">
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:12">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6">
@@ -1313,20 +1373,23 @@
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>18</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" ht="17" customHeight="1" spans="1:11">
+      <c r="L6" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:12">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6">
@@ -1335,18 +1398,21 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>19</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:11">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:12">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
@@ -1355,18 +1421,21 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
         <v>20</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:11">
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:12">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -1377,18 +1446,21 @@
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6">
         <v>0.5</v>
       </c>
       <c r="J9" s="6">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" spans="1:11">
+      <c r="L9" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:12">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6">
@@ -1397,41 +1469,51 @@
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="6">
         <v>0.5</v>
       </c>
       <c r="J10" s="6">
-        <v>21</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:11">
-      <c r="A11" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:12">
+      <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="6">
         <v>0.5</v>
       </c>
-      <c r="J11" s="6">
-        <v>23</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:11">
-      <c r="A12" s="10"/>
+      <c r="J11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:12">
+      <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6">
         <v>10</v>
@@ -1439,18 +1521,19 @@
       <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="6">
         <v>1.5</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:11">
+      <c r="K12" s="15"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1463,16 +1546,17 @@
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="6">
         <v>1.5</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:11">
+      <c r="K13" s="15"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:12">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6">
@@ -1481,16 +1565,17 @@
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:11">
+      <c r="K14" s="11"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6">
@@ -1499,14 +1584,10 @@
       <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:6">
       <c r="A16" s="5"/>
@@ -1515,9 +1596,9 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6">
         <v>0.5</v>
       </c>
@@ -1529,53 +1610,53 @@
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:6">
       <c r="A18" s="5"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6">
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:6">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6">
         <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="6">
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="6">
@@ -1584,14 +1665,14 @@
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:6">
       <c r="A21" s="5"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6">
         <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="6">
@@ -1600,14 +1681,14 @@
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:6">
       <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="6">
@@ -1616,15 +1697,15 @@
     </row>
     <row r="23" ht="17" customHeight="1" spans="1:6">
       <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6">
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F23" s="6">
         <v>0.5</v>
@@ -1632,14 +1713,14 @@
     </row>
     <row r="24" ht="17" customHeight="1" spans="1:6">
       <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6">
         <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="6">
@@ -1648,15 +1729,15 @@
     </row>
     <row r="25" ht="17" customHeight="1" spans="1:6">
       <c r="A25" s="5"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6">
         <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -1664,28 +1745,28 @@
     </row>
     <row r="26" ht="17" customHeight="1" spans="1:6">
       <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6">
         <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="6">
         <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="6">
         <v>1</v>
       </c>
@@ -1704,8 +1785,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A13:A18"/>
@@ -1714,7 +1796,9 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L11:L14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/doc/项目计划.xlsx
+++ b/doc/项目计划.xlsx
@@ -55,9 +55,15 @@
     <t>杨文章(上传头像)</t>
   </si>
   <si>
+    <t>钟浩</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
+    <t>张喆</t>
+  </si>
+  <si>
     <t>修改用户档案</t>
   </si>
   <si>
@@ -67,7 +73,7 @@
     <t>修改个人资料</t>
   </si>
   <si>
-    <t>张喆</t>
+    <t>林柯</t>
   </si>
   <si>
     <t>标签管理</t>
@@ -76,7 +82,7 @@
     <t>收藏管理</t>
   </si>
   <si>
-    <t>林柯</t>
+    <t>苏上</t>
   </si>
   <si>
     <t>管理用户</t>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>查询用户</t>
-  </si>
-  <si>
-    <t>钟浩</t>
-  </si>
-  <si>
-    <t>苏上</t>
   </si>
   <si>
     <t>首页</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -213,7 +213,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +257,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,121 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,13 +365,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,49 +497,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,115 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,21 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,17 +667,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -708,6 +682,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,137 +728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +897,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1239,9 +1245,12 @@
     <col min="8" max="8" width="11.15" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="17.4916666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.13333333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.4" customWidth="1"/>
+    <col min="14" max="14" width="14.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:12">
+    <row r="1" ht="48" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1259,8 +1268,15 @@
         <v>43184</v>
       </c>
       <c r="L1" s="10"/>
-    </row>
-    <row r="2" ht="17" customHeight="1" spans="1:12">
+      <c r="M1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="10">
+        <v>43185</v>
+      </c>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -1284,8 +1300,15 @@
       <c r="L2" s="12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" ht="17" customHeight="1" spans="1:12">
+      <c r="M2" s="6">
+        <v>3</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1311,15 +1334,22 @@
         <v>12</v>
       </c>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:12">
+      <c r="M3" s="6">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -1333,20 +1363,27 @@
       <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="17" customHeight="1" spans="1:12">
+      <c r="M4" s="6">
+        <v>18</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:15">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
@@ -1360,18 +1397,25 @@
       <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" ht="17" customHeight="1" spans="1:12">
+      <c r="M5" s="6">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
@@ -1383,20 +1427,27 @@
         <v>18</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="13">
+        <v>15</v>
+      </c>
+      <c r="L6" s="15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" ht="17" customHeight="1" spans="1:12">
+      <c r="M6" s="6">
+        <v>24</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
@@ -1406,22 +1457,31 @@
         <v>19</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="13">
+        <v>15</v>
+      </c>
+      <c r="L7" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:12">
+      <c r="M7" s="6">
+        <v>21</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
@@ -1429,24 +1489,33 @@
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="13">
+        <v>19</v>
+      </c>
+      <c r="L8" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:12">
+      <c r="M8" s="6">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="6">
         <v>0.5</v>
       </c>
@@ -1454,23 +1523,30 @@
         <v>21</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="13">
+        <v>19</v>
+      </c>
+      <c r="L9" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" spans="1:12">
+      <c r="M9" s="6">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6">
         <v>0.5</v>
@@ -1479,13 +1555,20 @@
         <v>23</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="13">
+        <v>22</v>
+      </c>
+      <c r="L10" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:12">
+      <c r="M10" s="6">
+        <v>6</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:15">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1497,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6">
         <v>0.5</v>
@@ -1505,14 +1588,21 @@
       <c r="J11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="K11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="15">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:12">
+      <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:15">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6">
@@ -1522,7 +1612,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6">
         <v>1.5</v>
@@ -1530,10 +1620,15 @@
       <c r="J12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:12">
+      <c r="M12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1553,10 +1648,15 @@
       <c r="J13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="6"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:12">
+      <c r="M13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6">
@@ -1574,6 +1674,11 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:6">
       <c r="A15" s="5"/>
@@ -1657,7 +1762,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -1673,7 +1778,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21" s="6">
         <v>0.5</v>
@@ -1689,7 +1794,7 @@
         <v>44</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="6">
         <v>0.5</v>
@@ -1705,7 +1810,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="6">
         <v>0.5</v>
@@ -1721,7 +1826,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="6">
         <v>0.5</v>
@@ -1785,9 +1890,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A13:A18"/>
@@ -1799,6 +1905,8 @@
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L11:L14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
